--- a/data-raw/fieldplayers_overall_season_2019.xlsx
+++ b/data-raw/fieldplayers_overall_season_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="11860" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>Aubrey Bledsoe</t>
   </si>
   <si>
-    <t>VerÃ³nica Boquete</t>
-  </si>
-  <si>
     <t>es ESP</t>
   </si>
   <si>
@@ -188,18 +185,12 @@
     <t>Amber Brooks</t>
   </si>
   <si>
-    <t>DagnÃ½ BrynjarsdÃ³ttir</t>
-  </si>
-  <si>
     <t>is ISL</t>
   </si>
   <si>
     <t>Lainey Burdett</t>
   </si>
   <si>
-    <t>Ariana CalderÃ³n</t>
-  </si>
-  <si>
     <t>mx MEX</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>Stephanie Cox</t>
   </si>
   <si>
-    <t>Ana-Maria CrnogorÄeviÄ</t>
-  </si>
-  <si>
     <t>ch SUI</t>
   </si>
   <si>
@@ -434,9 +422,6 @@
     <t>Darian Jenkins</t>
   </si>
   <si>
-    <t>Celia JimÃ©nez</t>
-  </si>
-  <si>
     <t>Estelle Johnson</t>
   </si>
   <si>
@@ -491,9 +476,6 @@
     <t>Kaleigh Kurtz</t>
   </si>
   <si>
-    <t>Stephanie LabbÃ©</t>
-  </si>
-  <si>
     <t>Lo'eau LaBonta</t>
   </si>
   <si>
@@ -599,9 +581,6 @@
     <t>Alyssa Naeher</t>
   </si>
   <si>
-    <t>YÅ«ki Nagasato</t>
-  </si>
-  <si>
     <t>Christine Nairn</t>
   </si>
   <si>
@@ -707,9 +686,6 @@
     <t>Amy Rodriguez</t>
   </si>
   <si>
-    <t>Raquel RodrÃ­guez</t>
-  </si>
-  <si>
     <t>cr CRC</t>
   </si>
   <si>
@@ -851,13 +827,37 @@
     <t>Shae Yanez</t>
   </si>
   <si>
-    <t>Gunnhildur Yrsa JÃ³nsdÃ³ttir</t>
-  </si>
-  <si>
     <t>Shelina Zadorsky</t>
   </si>
   <si>
     <t>McCall Zerboni</t>
+  </si>
+  <si>
+    <t>Verónica Boquete</t>
+  </si>
+  <si>
+    <t>Dagný Brynjarsdóttir</t>
+  </si>
+  <si>
+    <t>Ariana Calderón</t>
+  </si>
+  <si>
+    <t>Ana-Maria Crnogorčević</t>
+  </si>
+  <si>
+    <t>Celia Jiménez</t>
+  </si>
+  <si>
+    <t>Stephanie Labbé</t>
+  </si>
+  <si>
+    <t>Yūki Nagasato</t>
+  </si>
+  <si>
+    <t>Raquel Rodríguez</t>
+  </si>
+  <si>
+    <t>Gunnhildur Yrsa Jónsdóttir</t>
   </si>
 </sst>
 </file>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P231"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1823,13 +1823,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -1873,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -1923,13 +1923,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -1973,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -1982,7 +1982,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2">
         <v>22</v>
@@ -2023,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -2032,7 +2032,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2">
         <v>23</v>
@@ -2073,7 +2073,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -2117,7 +2117,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -2126,7 +2126,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2">
         <v>25</v>
@@ -2167,13 +2167,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -2217,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
@@ -2267,7 +2267,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
@@ -2276,7 +2276,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
         <v>22</v>
@@ -2317,10 +2317,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
@@ -2367,7 +2367,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -2376,7 +2376,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2">
         <v>22</v>
@@ -2417,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
@@ -2426,7 +2426,7 @@
         <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2">
         <v>24</v>
@@ -2467,7 +2467,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -2517,10 +2517,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -2567,10 +2567,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -2617,7 +2617,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
@@ -2667,7 +2667,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -2717,7 +2717,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -2726,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2">
         <v>25</v>
@@ -2767,7 +2767,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -2817,10 +2817,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>31</v>
@@ -2867,7 +2867,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -2917,7 +2917,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -2967,10 +2967,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -3017,7 +3017,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
@@ -3065,7 +3065,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
@@ -3074,7 +3074,7 @@
         <v>22</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F38" s="2">
         <v>25</v>
@@ -3115,13 +3115,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>26</v>
@@ -3165,10 +3165,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>18</v>
@@ -3215,7 +3215,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
@@ -3224,7 +3224,7 @@
         <v>31</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2">
         <v>20</v>
@@ -3265,7 +3265,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>21</v>
@@ -3274,7 +3274,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2">
         <v>27</v>
@@ -3315,7 +3315,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
@@ -3324,7 +3324,7 @@
         <v>22</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2">
         <v>26</v>
@@ -3365,7 +3365,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
@@ -3415,7 +3415,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -3465,7 +3465,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
@@ -3474,7 +3474,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3511,7 +3511,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
@@ -3561,16 +3561,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F48" s="2">
         <v>26</v>
@@ -3611,7 +3611,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
@@ -3620,7 +3620,7 @@
         <v>31</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2">
         <v>25</v>
@@ -3661,7 +3661,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
@@ -3711,7 +3711,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
@@ -3720,7 +3720,7 @@
         <v>22</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2">
         <v>27</v>
@@ -3761,7 +3761,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -3770,7 +3770,7 @@
         <v>22</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2">
         <v>27</v>
@@ -3811,7 +3811,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
@@ -3820,7 +3820,7 @@
         <v>31</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2">
         <v>31</v>
@@ -3861,16 +3861,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2">
         <v>25</v>
@@ -3911,7 +3911,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
@@ -3920,7 +3920,7 @@
         <v>22</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" s="2">
         <v>25</v>
@@ -3961,7 +3961,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
@@ -3970,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2">
         <v>23</v>
@@ -4011,7 +4011,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
@@ -4059,16 +4059,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2">
         <v>24</v>
@@ -4109,16 +4109,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2">
         <v>29</v>
@@ -4159,16 +4159,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2">
         <v>26</v>
@@ -4209,7 +4209,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
@@ -4218,7 +4218,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2">
         <v>23</v>
@@ -4259,7 +4259,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
@@ -4309,7 +4309,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
@@ -4359,7 +4359,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
@@ -4368,7 +4368,7 @@
         <v>31</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2">
         <v>21</v>
@@ -4409,7 +4409,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
@@ -4459,7 +4459,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
@@ -4509,10 +4509,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>22</v>
@@ -4559,7 +4559,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -4568,7 +4568,7 @@
         <v>31</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2">
         <v>23</v>
@@ -4609,13 +4609,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>23</v>
@@ -4659,7 +4659,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
@@ -4709,7 +4709,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>21</v>
@@ -4718,7 +4718,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2">
         <v>24</v>
@@ -4759,7 +4759,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -4768,7 +4768,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2">
         <v>24</v>
@@ -4809,7 +4809,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
@@ -4818,7 +4818,7 @@
         <v>31</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2">
         <v>26</v>
@@ -4859,7 +4859,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -4868,7 +4868,7 @@
         <v>22</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2">
         <v>21</v>
@@ -4909,7 +4909,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
@@ -4959,7 +4959,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
@@ -4968,7 +4968,7 @@
         <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2">
         <v>26</v>
@@ -5009,7 +5009,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
@@ -5059,16 +5059,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F78" s="2">
         <v>26</v>
@@ -5109,7 +5109,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
@@ -5118,7 +5118,7 @@
         <v>34</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2">
         <v>33</v>
@@ -5159,10 +5159,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>31</v>
@@ -5209,7 +5209,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
@@ -5259,7 +5259,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
@@ -5309,7 +5309,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
@@ -5318,7 +5318,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2">
         <v>23</v>
@@ -5359,7 +5359,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
@@ -5368,7 +5368,7 @@
         <v>31</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2">
         <v>25</v>
@@ -5409,7 +5409,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
@@ -5459,16 +5459,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2">
         <v>28</v>
@@ -5509,7 +5509,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
@@ -5559,7 +5559,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
@@ -5609,10 +5609,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>18</v>
@@ -5659,7 +5659,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
@@ -5709,7 +5709,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
@@ -5718,7 +5718,7 @@
         <v>22</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2">
         <v>22</v>
@@ -5759,7 +5759,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
@@ -5809,10 +5809,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>31</v>
@@ -5859,16 +5859,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2">
         <v>30</v>
@@ -5909,7 +5909,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
@@ -5959,16 +5959,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F96" s="2">
         <v>24</v>
@@ -6009,13 +6009,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>35</v>
@@ -6059,16 +6059,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2">
         <v>33</v>
@@ -6109,13 +6109,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>26</v>
@@ -6159,13 +6159,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>28</v>
@@ -6209,7 +6209,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
@@ -6259,16 +6259,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2">
         <v>24</v>
@@ -6309,16 +6309,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" s="2">
         <v>25</v>
@@ -6359,7 +6359,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
@@ -6368,7 +6368,7 @@
         <v>22</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2">
         <v>26</v>
@@ -6409,7 +6409,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
@@ -6418,7 +6418,7 @@
         <v>31</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2">
         <v>29</v>
@@ -6459,7 +6459,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
@@ -6505,13 +6505,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>23</v>
@@ -6555,7 +6555,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
@@ -6564,7 +6564,7 @@
         <v>34</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2">
         <v>28</v>
@@ -6605,16 +6605,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2">
         <v>34</v>
@@ -6655,7 +6655,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
@@ -6664,7 +6664,7 @@
         <v>31</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2">
         <v>21</v>
@@ -6705,7 +6705,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -6714,7 +6714,7 @@
         <v>34</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2">
         <v>32</v>
@@ -6755,7 +6755,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
@@ -6805,7 +6805,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
@@ -6855,7 +6855,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
@@ -6905,7 +6905,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
@@ -6955,7 +6955,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
@@ -6964,7 +6964,7 @@
         <v>18</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2">
         <v>28</v>
@@ -7005,7 +7005,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
@@ -7014,7 +7014,7 @@
         <v>34</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2">
         <v>21</v>
@@ -7055,16 +7055,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2">
         <v>33</v>
@@ -7105,7 +7105,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
@@ -7114,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F119" s="2">
         <v>36</v>
@@ -7155,10 +7155,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>22</v>
@@ -7205,7 +7205,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
@@ -7255,7 +7255,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
@@ -7305,7 +7305,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
@@ -7351,7 +7351,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>21</v>
@@ -7360,7 +7360,7 @@
         <v>18</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2">
         <v>32</v>
@@ -7401,16 +7401,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2">
         <v>28</v>
@@ -7451,10 +7451,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>18</v>
@@ -7501,16 +7501,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2">
         <v>29</v>
@@ -7551,7 +7551,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
@@ -7601,7 +7601,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
@@ -7610,7 +7610,7 @@
         <v>18</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F129" s="2">
         <v>22</v>
@@ -7651,7 +7651,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
@@ -7660,7 +7660,7 @@
         <v>18</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F130" s="2">
         <v>22</v>
@@ -7701,10 +7701,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>18</v>
@@ -7751,7 +7751,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
@@ -7760,7 +7760,7 @@
         <v>18</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2">
         <v>30</v>
@@ -7801,7 +7801,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
@@ -7851,7 +7851,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
@@ -7901,7 +7901,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
@@ -7910,7 +7910,7 @@
         <v>18</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F135" s="2">
         <v>24</v>
@@ -7951,7 +7951,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
@@ -7960,7 +7960,7 @@
         <v>18</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2">
         <v>24</v>
@@ -8001,7 +8001,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
@@ -8051,13 +8051,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>19</v>
@@ -8101,7 +8101,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
@@ -8110,7 +8110,7 @@
         <v>22</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2">
         <v>26</v>
@@ -8151,7 +8151,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
@@ -8160,7 +8160,7 @@
         <v>22</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -8197,7 +8197,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
@@ -8247,7 +8247,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
@@ -8256,7 +8256,7 @@
         <v>18</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F142" s="2">
         <v>22</v>
@@ -8297,7 +8297,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
@@ -8306,7 +8306,7 @@
         <v>18</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F143" s="2">
         <v>29</v>
@@ -8347,13 +8347,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>35</v>
@@ -8397,7 +8397,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
@@ -8447,7 +8447,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
@@ -8497,7 +8497,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
@@ -8506,7 +8506,7 @@
         <v>34</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F147" s="2">
         <v>30</v>
@@ -8547,16 +8547,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F148" s="2">
         <v>31</v>
@@ -8597,7 +8597,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
@@ -8647,7 +8647,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
@@ -8656,7 +8656,7 @@
         <v>31</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F150" s="2">
         <v>24</v>
@@ -8697,7 +8697,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
@@ -8747,7 +8747,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
@@ -8797,10 +8797,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>31</v>
@@ -8847,13 +8847,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>35</v>
@@ -8897,16 +8897,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F155" s="2">
         <v>34</v>
@@ -8947,16 +8947,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F156" s="2">
         <v>24</v>
@@ -8997,7 +8997,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
@@ -9047,13 +9047,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>19</v>
@@ -9097,7 +9097,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
@@ -9147,7 +9147,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
@@ -9197,7 +9197,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
@@ -9206,7 +9206,7 @@
         <v>31</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2">
         <v>25</v>
@@ -9247,7 +9247,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>17</v>
@@ -9256,7 +9256,7 @@
         <v>31</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F162" s="2">
         <v>23</v>
@@ -9297,7 +9297,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
@@ -9347,10 +9347,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>31</v>
@@ -9397,7 +9397,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
@@ -9447,7 +9447,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
@@ -9456,7 +9456,7 @@
         <v>31</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F166" s="2">
         <v>28</v>
@@ -9497,7 +9497,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
@@ -9547,7 +9547,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
@@ -9597,7 +9597,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
@@ -9647,7 +9647,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
@@ -9697,7 +9697,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
@@ -9706,7 +9706,7 @@
         <v>18</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F171" s="2">
         <v>21</v>
@@ -9747,7 +9747,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
@@ -9797,7 +9797,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
@@ -9847,13 +9847,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>26</v>
@@ -9897,13 +9897,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>26</v>
@@ -9947,13 +9947,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>23</v>
@@ -9997,7 +9997,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
@@ -10006,7 +10006,7 @@
         <v>31</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F177" s="2">
         <v>23</v>
@@ -10047,7 +10047,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
@@ -10097,16 +10097,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F179" s="2">
         <v>26</v>
@@ -10147,7 +10147,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
@@ -10156,7 +10156,7 @@
         <v>31</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F180" s="2">
         <v>24</v>
@@ -10197,13 +10197,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>35</v>
@@ -10247,16 +10247,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F182" s="2">
         <v>25</v>
@@ -10297,10 +10297,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>31</v>
@@ -10347,7 +10347,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
@@ -10356,7 +10356,7 @@
         <v>34</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F184" s="2">
         <v>24</v>
@@ -10397,7 +10397,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
@@ -10447,16 +10447,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F186" s="2">
         <v>22</v>
@@ -10497,7 +10497,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
@@ -10547,7 +10547,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
@@ -10597,7 +10597,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
@@ -10647,7 +10647,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
@@ -10697,7 +10697,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
@@ -10706,7 +10706,7 @@
         <v>31</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F191" s="2">
         <v>21</v>
@@ -10747,7 +10747,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
@@ -10756,7 +10756,7 @@
         <v>34</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F192" s="2">
         <v>23</v>
@@ -10797,7 +10797,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
@@ -10847,7 +10847,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
@@ -10856,7 +10856,7 @@
         <v>31</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F194" s="2">
         <v>28</v>
@@ -10897,10 +10897,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>18</v>
@@ -10947,13 +10947,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>23</v>
@@ -10997,7 +10997,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
@@ -11006,7 +11006,7 @@
         <v>31</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F197" s="2">
         <v>24</v>
@@ -11047,7 +11047,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
@@ -11097,7 +11097,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
@@ -11106,7 +11106,7 @@
         <v>22</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F199" s="2">
         <v>25</v>
@@ -11147,7 +11147,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
@@ -11197,16 +11197,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F201" s="2">
         <v>29</v>
@@ -11247,7 +11247,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
@@ -11297,7 +11297,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
@@ -11306,7 +11306,7 @@
         <v>22</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F203" s="2">
         <v>28</v>
@@ -11347,7 +11347,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
@@ -11393,7 +11393,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
@@ -11443,7 +11443,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
@@ -11489,7 +11489,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
@@ -11539,7 +11539,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
@@ -11548,7 +11548,7 @@
         <v>18</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F208" s="2">
         <v>21</v>
@@ -11589,10 +11589,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>18</v>
@@ -11639,7 +11639,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
@@ -11689,13 +11689,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>35</v>
@@ -11739,7 +11739,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
@@ -11748,7 +11748,7 @@
         <v>18</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F212" s="2">
         <v>26</v>
@@ -11789,10 +11789,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>22</v>
@@ -11839,7 +11839,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
@@ -11848,7 +11848,7 @@
         <v>18</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F214" s="2">
         <v>24</v>
@@ -11889,7 +11889,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
@@ -11898,7 +11898,7 @@
         <v>22</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F215" s="2">
         <v>21</v>
@@ -11939,7 +11939,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
@@ -11985,7 +11985,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
@@ -11994,7 +11994,7 @@
         <v>22</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F217" s="2">
         <v>24</v>
@@ -12035,7 +12035,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
@@ -12083,7 +12083,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
@@ -12133,7 +12133,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
@@ -12183,10 +12183,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>18</v>
@@ -12233,10 +12233,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>34</v>
@@ -12283,7 +12283,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
@@ -12292,7 +12292,7 @@
         <v>18</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F223" s="2">
         <v>25</v>
@@ -12333,16 +12333,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F224" s="2">
         <v>22</v>
@@ -12383,7 +12383,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
@@ -12392,7 +12392,7 @@
         <v>31</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F225" s="2">
         <v>26</v>
@@ -12433,7 +12433,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
@@ -12442,7 +12442,7 @@
         <v>22</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -12479,13 +12479,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>26</v>
@@ -12529,7 +12529,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>25</v>
@@ -12579,10 +12579,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>22</v>
@@ -12629,7 +12629,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>17</v>
@@ -12638,7 +12638,7 @@
         <v>31</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F230" s="2">
         <v>26</v>
@@ -12679,7 +12679,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>25</v>
@@ -12688,7 +12688,7 @@
         <v>22</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F231" s="2">
         <v>32</v>

--- a/data-raw/fieldplayers_overall_season_2019.xlsx
+++ b/data-raw/fieldplayers_overall_season_2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiatannir/Documents/nwslR/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliso\Desktop\nwslR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21784381-6485-4016-ABF0-E39A3442908C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -662,9 +663,6 @@
     <t>Margaret Purce</t>
   </si>
   <si>
-    <t>Rebecca Quinn</t>
-  </si>
-  <si>
     <t>Megan Rapinoe</t>
   </si>
   <si>
@@ -858,12 +856,15 @@
   </si>
   <si>
     <t>Gunnhildur Yrsa Jónsdóttir</t>
+  </si>
+  <si>
+    <t>Quinn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -921,6 +922,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1188,14 +1192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P231"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -1218,7 +1222,7 @@
     <col min="22" max="22" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1818,12 +1822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
@@ -1868,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2162,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2212,12 +2216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
@@ -2262,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2312,12 +2316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>54</v>
@@ -2362,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2412,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2962,12 +2966,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>69</v>
@@ -3012,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3110,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3906,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4254,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4354,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4854,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5204,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5354,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5554,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5804,12 +5808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>39</v>
@@ -5854,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5954,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6004,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6204,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6500,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6700,12 +6704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -6750,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6800,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7150,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7346,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7596,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7746,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7796,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7846,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7896,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7996,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -8046,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8146,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8242,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8292,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8342,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8392,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8542,12 +8546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>137</v>
@@ -8592,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8742,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8792,7 +8796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8942,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -9092,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -9192,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -9242,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -9342,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -9442,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -9492,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -9542,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -9592,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -9642,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -9742,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -9792,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -9842,12 +9846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -9892,12 +9896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
@@ -9942,12 +9946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>59</v>
@@ -9992,12 +9996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
@@ -10042,12 +10046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
@@ -10092,12 +10096,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
@@ -10142,12 +10146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
@@ -10192,12 +10196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
@@ -10242,15 +10246,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>18</v>
@@ -10292,12 +10296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>54</v>
@@ -10342,12 +10346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
@@ -10392,12 +10396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
@@ -10442,12 +10446,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>54</v>
@@ -10492,12 +10496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
@@ -10542,12 +10546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
@@ -10592,12 +10596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
@@ -10642,12 +10646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
@@ -10692,12 +10696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
@@ -10742,12 +10746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
@@ -10792,12 +10796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
@@ -10842,12 +10846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
@@ -10892,12 +10896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>59</v>
@@ -10942,12 +10946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>17</v>
@@ -10992,12 +10996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
@@ -11042,12 +11046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
@@ -11092,12 +11096,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
@@ -11142,12 +11146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
@@ -11192,15 +11196,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>22</v>
@@ -11242,12 +11246,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
@@ -11292,12 +11296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
@@ -11342,12 +11346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
@@ -11388,12 +11392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
@@ -11438,12 +11442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
@@ -11484,12 +11488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
@@ -11534,12 +11538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
@@ -11584,12 +11588,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>76</v>
@@ -11634,12 +11638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
@@ -11684,12 +11688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
@@ -11734,12 +11738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
@@ -11784,12 +11788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>137</v>
@@ -11834,12 +11838,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
@@ -11884,12 +11888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
@@ -11934,12 +11938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
@@ -11980,12 +11984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
@@ -12030,12 +12034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
@@ -12078,12 +12082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
@@ -12128,12 +12132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
@@ -12178,12 +12182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>43</v>
@@ -12228,12 +12232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>59</v>
@@ -12278,12 +12282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
@@ -12328,12 +12332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
@@ -12378,12 +12382,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
@@ -12428,12 +12432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
@@ -12474,12 +12478,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
@@ -12524,12 +12528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>25</v>
@@ -12574,12 +12578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>52</v>
@@ -12624,12 +12628,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>17</v>
@@ -12674,12 +12678,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>25</v>
